--- a/static/RAS_DB.xlsx
+++ b/static/RAS_DB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="drivers_data" sheetId="1" r:id="rId1"/>
@@ -1121,18 +1121,18 @@
       <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="46.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="68.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1"/>
-    <col min="7" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="46.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.54296875" customWidth="1"/>
+    <col min="7" max="8" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>9</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>23</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>62</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="16" t="s">
         <v>65</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="16" t="s">
         <v>68</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
         <v>71</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="20" t="s">
         <v>73</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="23" t="s">
         <v>75</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="A19" s="23" t="s">
         <v>78</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="23" t="s">
         <v>81</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="25" t="s">
         <v>84</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="16" t="s">
         <v>86</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="A23" s="13" t="s">
         <v>89</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="18" t="s">
         <v>92</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="28" t="s">
         <v>94</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="28" t="s">
         <v>97</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="28" t="s">
         <v>100</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="28" t="s">
         <v>103</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="28" t="s">
         <v>106</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="28" t="s">
         <v>109</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="28" t="s">
         <v>112</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="28" t="s">
         <v>115</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="28" t="s">
         <v>118</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="28" t="s">
         <v>121</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="28" t="s">
         <v>124</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="28" t="s">
         <v>127</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="32" t="s">
         <v>130</v>
       </c>
@@ -2205,7 +2205,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="32" t="s">
         <v>133</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="32" t="s">
         <v>138</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="32" t="s">
         <v>136</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="32" t="s">
         <v>142</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="32" t="s">
         <v>147</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="32" t="s">
         <v>148</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="32" t="s">
         <v>156</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="32" t="s">
         <v>159</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="32" t="s">
         <v>162</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="32" t="s">
         <v>165</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="32" t="s">
         <v>167</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="32" t="s">
         <v>169</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="32" t="s">
         <v>171</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="32" t="s">
         <v>173</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="32" t="s">
         <v>176</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="32" t="s">
         <v>183</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="32" t="s">
         <v>187</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="32" t="s">
         <v>190</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="32" t="s">
         <v>193</v>
       </c>
@@ -2766,20 +2766,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>53</v>
       </c>
@@ -2799,7 +2799,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>45</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>34</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="34" t="s">
         <v>186</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>46</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>36</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>35</v>
       </c>
@@ -2924,67 +2924,67 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>60</v>
       </c>
       <c r="B8" s="8">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C8" s="8">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D8" s="8">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="E8" s="8">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F8" s="8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>56</v>
       </c>
       <c r="B9" s="8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C9" s="8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D9" s="8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E9" s="8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F9" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>57</v>
       </c>
       <c r="B10" s="8">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C10" s="8">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E10" s="8">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F10" s="8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>59</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>58</v>
       </c>
@@ -3050,13 +3050,13 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>47</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>48</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>49</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>2.29</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>50</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>2.39</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>51</v>
       </c>
@@ -3130,18 +3130,18 @@
       <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -3191,23 +3191,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>39</v>
       </c>
